--- a/df_help_11.05.2022.xlsx
+++ b/df_help_11.05.2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13200" windowHeight="9690" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12780" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="RU" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="136">
   <si>
     <t>краткое наименование инструмента</t>
   </si>
@@ -128,54 +128,6 @@
     <t>today_close</t>
   </si>
   <si>
-    <t>mean_min_dek1</t>
-  </si>
-  <si>
-    <t>mean_min_dek2</t>
-  </si>
-  <si>
-    <t>mean_min_dek3</t>
-  </si>
-  <si>
-    <t>mean_min_dek4</t>
-  </si>
-  <si>
-    <t>mean_min_dek5</t>
-  </si>
-  <si>
-    <t>mean_min_dek6</t>
-  </si>
-  <si>
-    <t>mean_min_dek7</t>
-  </si>
-  <si>
-    <t>mean_min_dek8</t>
-  </si>
-  <si>
-    <t>mean_min_pr_dek1</t>
-  </si>
-  <si>
-    <t>mean_min_pr_dek2</t>
-  </si>
-  <si>
-    <t>mean_min_pr_dek3</t>
-  </si>
-  <si>
-    <t>mean_min_pr_dek4</t>
-  </si>
-  <si>
-    <t>mean_min_pr_dek5</t>
-  </si>
-  <si>
-    <t>mean_min_pr_dek6</t>
-  </si>
-  <si>
-    <t>mean_min_pr_dek7</t>
-  </si>
-  <si>
-    <t>mean_min_pr_dek8</t>
-  </si>
-  <si>
     <t>min_pr_delta_1_2</t>
   </si>
   <si>
@@ -330,9 +282,6 @@
   </si>
   <si>
     <t>минимальная  стоимость среди дневных минимальных за период</t>
-  </si>
-  <si>
-    <t>min_min_dek1</t>
   </si>
   <si>
     <t>branch</t>
@@ -525,6 +474,54 @@
   </si>
   <si>
     <t>market</t>
+  </si>
+  <si>
+    <t>min_dek1</t>
+  </si>
+  <si>
+    <t>min_dek2</t>
+  </si>
+  <si>
+    <t>min_dek3</t>
+  </si>
+  <si>
+    <t>min_dek4</t>
+  </si>
+  <si>
+    <t>min_dek5</t>
+  </si>
+  <si>
+    <t>min_dek6</t>
+  </si>
+  <si>
+    <t>min_dek7</t>
+  </si>
+  <si>
+    <t>min_dek8</t>
+  </si>
+  <si>
+    <t>min_pr_dek1</t>
+  </si>
+  <si>
+    <t>min_pr_dek2</t>
+  </si>
+  <si>
+    <t>min_pr_dek3</t>
+  </si>
+  <si>
+    <t>min_pr_dek4</t>
+  </si>
+  <si>
+    <t>min_pr_dek5</t>
+  </si>
+  <si>
+    <t>min_pr_dek6</t>
+  </si>
+  <si>
+    <t>min_pr_dek7</t>
+  </si>
+  <si>
+    <t>min_pr_dek8</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1200,7 @@
   <dimension ref="B1:CJ6"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1230,10 +1227,10 @@
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="34" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="H1" s="43"/>
       <c r="I1" s="43"/>
@@ -1262,7 +1259,7 @@
       <c r="AB1" s="33"/>
       <c r="AC1" s="33"/>
       <c r="AD1" s="45" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="AE1" s="45"/>
       <c r="AF1" s="45"/>
@@ -1316,7 +1313,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="34"/>
       <c r="G2" s="36" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="H2" s="37"/>
       <c r="I2" s="37"/>
@@ -1345,7 +1342,7 @@
       <c r="AB2" s="33"/>
       <c r="AC2" s="33"/>
       <c r="AD2" s="36" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="AE2" s="37"/>
       <c r="AF2" s="37"/>
@@ -1388,7 +1385,7 @@
       <c r="CA2"/>
       <c r="CB2"/>
       <c r="CC2" s="30" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="CD2" s="30"/>
       <c r="CE2" s="30"/>
@@ -1405,16 +1402,16 @@
       <c r="E3" s="2"/>
       <c r="F3" s="34"/>
       <c r="G3" s="5" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>16</v>
@@ -1429,16 +1426,16 @@
         <v>19</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="S3" s="5" t="s">
         <v>16</v>
@@ -1460,16 +1457,16 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="5" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="AH3" s="5" t="s">
         <v>16</v>
@@ -1484,16 +1481,16 @@
         <v>19</v>
       </c>
       <c r="AL3" s="5" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="AM3" s="5" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="AN3" s="5" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="AO3" s="5" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="AP3" s="5" t="s">
         <v>16</v>
@@ -1521,35 +1518,35 @@
       <c r="BE3" s="4"/>
       <c r="BF3" s="4"/>
       <c r="BU3" s="31" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="BV3" s="31"/>
       <c r="BW3" s="31" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="BX3" s="31"/>
       <c r="BY3" s="31" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="BZ3" s="31"/>
       <c r="CA3" s="31" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="CB3" s="31"/>
       <c r="CC3" s="31" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="CD3" s="31"/>
       <c r="CE3" s="31" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="CF3" s="31"/>
       <c r="CG3" s="31" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="CH3" s="31"/>
       <c r="CI3" s="31" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="CJ3" s="31"/>
     </row>
@@ -1622,7 +1619,7 @@
       <c r="BE4" s="4"/>
       <c r="BF4" s="4"/>
       <c r="BG4" s="41" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="BH4" s="42"/>
       <c r="BI4" s="42"/>
@@ -1638,7 +1635,7 @@
       <c r="BS4" s="42"/>
       <c r="BT4" s="42"/>
       <c r="BU4" s="32" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="BV4" s="33"/>
       <c r="BW4" s="33"/>
@@ -1659,7 +1656,7 @@
     <row r="5" spans="2:88" s="1" customFormat="1" ht="22.5" customHeight="1">
       <c r="B5" s="2"/>
       <c r="E5" s="15" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="G5" s="18">
         <v>1</v>
@@ -1790,7 +1787,7 @@
     </row>
     <row r="6" spans="2:88" s="2" customFormat="1" ht="45">
       <c r="B6" s="11" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>31</v>
@@ -1799,256 +1796,256 @@
         <v>32</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G6" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="S6" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="T6" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="U6" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="V6" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="W6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="X6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA6" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC6" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD6" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE6" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF6" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ6" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK6" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL6" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM6" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN6" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP6" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR6" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS6" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT6" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU6" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV6" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW6" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX6" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY6" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ6" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="BA6" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="BB6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD6" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="BF6" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="BG6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BH6" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI6" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ6" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK6" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM6" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN6" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO6" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP6" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="BQ6" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="BR6" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="BS6" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="BT6" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="BU6" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="BV6" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW6" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="BX6" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY6" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="BZ6" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="CA6" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q6" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="R6" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="S6" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="T6" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="U6" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="V6" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="W6" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X6" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y6" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z6" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB6" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC6" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD6" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE6" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF6" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG6" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH6" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI6" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ6" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK6" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL6" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM6" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN6" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO6" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP6" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ6" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR6" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS6" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="AT6" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU6" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV6" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="AW6" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="AX6" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AY6" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AZ6" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="BA6" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="BB6" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="BC6" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="BD6" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE6" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="BF6" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG6" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH6" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="BI6" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="BJ6" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="BK6" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="BL6" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="BM6" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="BN6" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="BO6" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BP6" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="BQ6" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="BR6" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="BS6" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="BT6" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="BU6" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="BV6" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="BW6" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="BX6" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="BY6" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="BZ6" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="CA6" s="25" t="s">
-        <v>119</v>
-      </c>
       <c r="CB6" s="25" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="CC6" s="24" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="CD6" s="14" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="CE6" s="14" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="CF6" s="14" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="CG6" s="14" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="CH6" s="14" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="CI6" s="14" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="CJ6" s="14" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2099,7 +2096,7 @@
   <dimension ref="A1:CJ6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G6" sqref="G6:V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -2122,10 +2119,10 @@
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="34" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="G1" s="50" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="H1" s="50"/>
       <c r="I1" s="50"/>
@@ -2154,7 +2151,7 @@
       <c r="AB1" s="35"/>
       <c r="AC1" s="35"/>
       <c r="AD1" s="45" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="AE1" s="45"/>
       <c r="AF1" s="45"/>
@@ -2209,7 +2206,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="34"/>
       <c r="G2" s="36" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="H2" s="37"/>
       <c r="I2" s="37"/>
@@ -2238,7 +2235,7 @@
       <c r="AB2" s="35"/>
       <c r="AC2" s="35"/>
       <c r="AD2" s="36" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="AE2" s="37"/>
       <c r="AF2" s="37"/>
@@ -2273,7 +2270,7 @@
       <c r="BE2" s="4"/>
       <c r="BF2" s="4"/>
       <c r="CC2" s="30" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="CD2" s="30"/>
       <c r="CE2" s="30"/>
@@ -2291,16 +2288,16 @@
       <c r="E3" s="2"/>
       <c r="F3" s="34"/>
       <c r="G3" s="5" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>16</v>
@@ -2315,16 +2312,16 @@
         <v>19</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="S3" s="5" t="s">
         <v>16</v>
@@ -2346,16 +2343,16 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="5" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="AH3" s="5" t="s">
         <v>16</v>
@@ -2370,16 +2367,16 @@
         <v>19</v>
       </c>
       <c r="AL3" s="5" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="AM3" s="5" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="AN3" s="5" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="AO3" s="5" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="AP3" s="5" t="s">
         <v>16</v>
@@ -2407,35 +2404,35 @@
       <c r="BE3" s="4"/>
       <c r="BF3" s="4"/>
       <c r="BU3" s="31" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="BV3" s="31"/>
       <c r="BW3" s="31" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="BX3" s="31"/>
       <c r="BY3" s="31" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="BZ3" s="31"/>
       <c r="CA3" s="31" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="CB3" s="31"/>
       <c r="CC3" s="31" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="CD3" s="31"/>
       <c r="CE3" s="31" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="CF3" s="31"/>
       <c r="CG3" s="31" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="CH3" s="31"/>
       <c r="CI3" s="31" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="CJ3" s="31"/>
     </row>
@@ -2509,7 +2506,7 @@
       <c r="BE4" s="4"/>
       <c r="BF4" s="4"/>
       <c r="BG4" s="41" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="BH4" s="42"/>
       <c r="BI4" s="42"/>
@@ -2525,7 +2522,7 @@
       <c r="BS4" s="42"/>
       <c r="BT4" s="42"/>
       <c r="BU4" s="32" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="BV4" s="33"/>
       <c r="BW4" s="33"/>
@@ -2549,7 +2546,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="15" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="5">
@@ -2697,7 +2694,7 @@
     </row>
     <row r="6" spans="1:88" s="2" customFormat="1" ht="45">
       <c r="B6" s="11" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>31</v>
@@ -2706,256 +2703,256 @@
         <v>32</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G6" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="W6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="X6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="Y6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="Z6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="AA6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="AB6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="AC6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="AD6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="AE6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="AF6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="AG6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="AH6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="AI6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="AJ6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="U6" s="11" t="s">
+      <c r="AK6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="V6" s="11" t="s">
+      <c r="AL6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="W6" s="11" t="s">
+      <c r="AM6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="X6" s="11" t="s">
+      <c r="AN6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="Y6" s="11" t="s">
+      <c r="AO6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Z6" s="11" t="s">
+      <c r="AP6" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AA6" s="11" t="s">
+      <c r="AQ6" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AB6" s="11" t="s">
+      <c r="AR6" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AC6" s="11" t="s">
+      <c r="AS6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AD6" s="11" t="s">
+      <c r="AT6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AE6" s="11" t="s">
+      <c r="AU6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF6" s="11" t="s">
+      <c r="AV6" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AG6" s="11" t="s">
+      <c r="AW6" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AH6" s="11" t="s">
+      <c r="AX6" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AI6" s="11" t="s">
+      <c r="AY6" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AJ6" s="11" t="s">
+      <c r="AZ6" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="AK6" s="11" t="s">
+      <c r="BA6" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AL6" s="11" t="s">
+      <c r="BB6" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AM6" s="11" t="s">
+      <c r="BC6" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AN6" s="11" t="s">
+      <c r="BD6" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AO6" s="11" t="s">
+      <c r="BE6" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="AP6" s="11" t="s">
+      <c r="BF6" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="AQ6" s="11" t="s">
+      <c r="BG6" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="AR6" s="11" t="s">
+      <c r="BH6" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="AS6" s="11" t="s">
+      <c r="BI6" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AT6" s="11" t="s">
+      <c r="BJ6" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="AU6" s="11" t="s">
+      <c r="BK6" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AV6" s="11" t="s">
+      <c r="BL6" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AW6" s="11" t="s">
+      <c r="BM6" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AX6" s="11" t="s">
+      <c r="BN6" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AY6" s="11" t="s">
+      <c r="BO6" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="AZ6" s="11" t="s">
+      <c r="BP6" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="BA6" s="11" t="s">
+      <c r="BQ6" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="BB6" s="11" t="s">
+      <c r="BR6" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="BC6" s="11" t="s">
+      <c r="BS6" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="BD6" s="11" t="s">
+      <c r="BT6" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="BE6" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="BF6" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG6" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH6" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="BI6" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="BJ6" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="BK6" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="BL6" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="BM6" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="BN6" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="BO6" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BP6" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="BQ6" s="14" t="s">
+      <c r="BU6" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="BR6" s="14" t="s">
+      <c r="BV6" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="BS6" s="13" t="s">
+      <c r="BW6" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="BT6" s="13" t="s">
+      <c r="BX6" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="BU6" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="BV6" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="BW6" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="BX6" s="25" t="s">
-        <v>116</v>
-      </c>
       <c r="BY6" s="25" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="BZ6" s="25" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="CA6" s="25" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="CB6" s="25" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="CC6" s="24" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="CD6" s="14" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="CE6" s="14" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="CF6" s="14" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="CG6" s="14" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="CH6" s="14" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="CI6" s="14" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="CJ6" s="14" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3005,7 +3002,7 @@
   <dimension ref="A1:CJ6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G6" sqref="G6:V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -3028,10 +3025,10 @@
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="34" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="G1" s="50" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="H1" s="50"/>
       <c r="I1" s="50"/>
@@ -3060,7 +3057,7 @@
       <c r="AB1" s="35"/>
       <c r="AC1" s="35"/>
       <c r="AD1" s="45" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="AE1" s="45"/>
       <c r="AF1" s="45"/>
@@ -3369,7 +3366,7 @@
       <c r="BE4" s="4"/>
       <c r="BF4" s="4"/>
       <c r="BG4" s="41" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="BH4" s="42"/>
       <c r="BI4" s="42"/>
@@ -3385,7 +3382,7 @@
       <c r="BS4" s="42"/>
       <c r="BT4" s="42"/>
       <c r="BU4" s="32" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="BV4" s="33"/>
       <c r="BW4" s="33"/>
@@ -3409,7 +3406,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="15" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="5">
@@ -3557,7 +3554,7 @@
     </row>
     <row r="6" spans="1:88" s="2" customFormat="1" ht="45">
       <c r="B6" s="11" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>31</v>
@@ -3566,261 +3563,260 @@
         <v>32</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G6" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="W6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="X6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="Y6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="Z6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="AA6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="AB6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="AC6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="AD6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="AE6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="AF6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="AG6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="AH6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="AI6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="AJ6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="U6" s="11" t="s">
+      <c r="AK6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="V6" s="11" t="s">
+      <c r="AL6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="W6" s="11" t="s">
+      <c r="AM6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="X6" s="11" t="s">
+      <c r="AN6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="Y6" s="11" t="s">
+      <c r="AO6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Z6" s="11" t="s">
+      <c r="AP6" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AA6" s="11" t="s">
+      <c r="AQ6" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AB6" s="11" t="s">
+      <c r="AR6" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AC6" s="11" t="s">
+      <c r="AS6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AD6" s="11" t="s">
+      <c r="AT6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AE6" s="11" t="s">
+      <c r="AU6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF6" s="11" t="s">
+      <c r="AV6" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AG6" s="11" t="s">
+      <c r="AW6" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AH6" s="11" t="s">
+      <c r="AX6" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AI6" s="11" t="s">
+      <c r="AY6" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AJ6" s="11" t="s">
+      <c r="AZ6" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="AK6" s="11" t="s">
+      <c r="BA6" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AL6" s="11" t="s">
+      <c r="BB6" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AM6" s="11" t="s">
+      <c r="BC6" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AN6" s="11" t="s">
+      <c r="BD6" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AO6" s="11" t="s">
+      <c r="BE6" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="AP6" s="11" t="s">
+      <c r="BF6" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="AQ6" s="11" t="s">
+      <c r="BG6" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="AR6" s="11" t="s">
+      <c r="BH6" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="AS6" s="11" t="s">
+      <c r="BI6" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AT6" s="11" t="s">
+      <c r="BJ6" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="AU6" s="11" t="s">
+      <c r="BK6" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AV6" s="11" t="s">
+      <c r="BL6" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AW6" s="11" t="s">
+      <c r="BM6" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AX6" s="11" t="s">
+      <c r="BN6" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AY6" s="11" t="s">
+      <c r="BO6" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="AZ6" s="11" t="s">
+      <c r="BP6" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="BA6" s="11" t="s">
+      <c r="BQ6" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="BB6" s="11" t="s">
+      <c r="BR6" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="BC6" s="11" t="s">
+      <c r="BS6" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="BD6" s="11" t="s">
+      <c r="BT6" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="BE6" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="BF6" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG6" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH6" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="BI6" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="BJ6" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="BK6" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="BL6" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="BM6" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="BN6" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="BO6" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BP6" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="BQ6" s="14" t="s">
+      <c r="BU6" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="BR6" s="14" t="s">
+      <c r="BV6" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="BS6" s="13" t="s">
+      <c r="BW6" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="BT6" s="13" t="s">
+      <c r="BX6" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="BU6" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="BV6" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="BW6" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="BX6" s="25" t="s">
-        <v>116</v>
-      </c>
       <c r="BY6" s="25" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="BZ6" s="25" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="CA6" s="25" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="CB6" s="25" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="CC6" s="24" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="CD6" s="14" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="CE6" s="14" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="CF6" s="14" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="CG6" s="14" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="CH6" s="14" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="CI6" s="14" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="CJ6" s="14" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AL4:AS4"/>
     <mergeCell ref="AT4:AZ4"/>
     <mergeCell ref="F1:F4"/>
@@ -3840,6 +3836,7 @@
     <mergeCell ref="AL2:AS2"/>
     <mergeCell ref="AT2:AZ2"/>
     <mergeCell ref="O4:V4"/>
+    <mergeCell ref="W4:AC4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3862,7 +3859,7 @@
   <sheetData>
     <row r="4" spans="3:18" ht="15.75" customHeight="1">
       <c r="C4" s="51" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D4" s="51"/>
       <c r="E4" s="51"/>
@@ -3898,52 +3895,52 @@
     </row>
     <row r="6" spans="3:18" ht="45">
       <c r="C6" s="14" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="R6" s="13" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3959,8 +3956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="AV1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BE1" sqref="BE1:BF1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -3969,6 +3966,7 @@
     <col min="5" max="5" width="23.42578125" customWidth="1"/>
     <col min="8" max="29" width="9.140625" outlineLevel="1"/>
     <col min="31" max="52" width="9.140625" outlineLevel="1"/>
+    <col min="57" max="58" width="10.42578125" customWidth="1"/>
     <col min="59" max="71" width="9.140625" outlineLevel="1"/>
   </cols>
   <sheetData>
@@ -3983,10 +3981,10 @@
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="34" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="G1" s="50" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="H1" s="50"/>
       <c r="I1" s="50"/>
@@ -4015,7 +4013,7 @@
       <c r="AB1" s="35"/>
       <c r="AC1" s="35"/>
       <c r="AD1" s="45" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="AE1" s="45"/>
       <c r="AF1" s="45"/>
@@ -4070,7 +4068,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="34"/>
       <c r="G2" s="36" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="H2" s="37"/>
       <c r="I2" s="37"/>
@@ -4099,7 +4097,7 @@
       <c r="AB2" s="35"/>
       <c r="AC2" s="35"/>
       <c r="AD2" s="36" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="AE2" s="37"/>
       <c r="AF2" s="37"/>
@@ -4134,7 +4132,7 @@
       <c r="BE2" s="4"/>
       <c r="BF2" s="4"/>
       <c r="CC2" s="30" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="CD2" s="30"/>
       <c r="CE2" s="30"/>
@@ -4152,16 +4150,16 @@
       <c r="E3" s="2"/>
       <c r="F3" s="34"/>
       <c r="G3" s="5" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>16</v>
@@ -4176,16 +4174,16 @@
         <v>19</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="S3" s="5" t="s">
         <v>16</v>
@@ -4207,16 +4205,16 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="5" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="AH3" s="5" t="s">
         <v>16</v>
@@ -4231,16 +4229,16 @@
         <v>19</v>
       </c>
       <c r="AL3" s="5" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="AM3" s="5" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="AN3" s="5" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="AO3" s="5" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="AP3" s="5" t="s">
         <v>16</v>
@@ -4268,35 +4266,35 @@
       <c r="BE3" s="4"/>
       <c r="BF3" s="4"/>
       <c r="BU3" s="31" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="BV3" s="31"/>
       <c r="BW3" s="53" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="BX3" s="53"/>
       <c r="BY3" s="31" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="BZ3" s="31"/>
       <c r="CA3" s="31" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="CB3" s="31"/>
       <c r="CC3" s="31" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="CD3" s="31"/>
       <c r="CE3" s="53" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="CF3" s="53"/>
       <c r="CG3" s="31" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="CH3" s="31"/>
       <c r="CI3" s="31" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="CJ3" s="31"/>
     </row>
@@ -4370,7 +4368,7 @@
       <c r="BE4" s="4"/>
       <c r="BF4" s="4"/>
       <c r="BG4" s="41" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="BH4" s="42"/>
       <c r="BI4" s="42"/>
@@ -4386,7 +4384,7 @@
       <c r="BS4" s="42"/>
       <c r="BT4" s="54"/>
       <c r="BU4" s="32" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="BV4" s="33"/>
       <c r="BW4" s="33"/>
@@ -4410,7 +4408,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="21" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="5">
@@ -4558,7 +4556,7 @@
     </row>
     <row r="6" spans="1:88" s="2" customFormat="1" ht="45">
       <c r="B6" s="11" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>31</v>
@@ -4567,256 +4565,256 @@
         <v>32</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G6" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="W6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="X6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="Y6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="Z6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="AA6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="AB6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="AC6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="AD6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="AE6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="AF6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="AG6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="AH6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="AI6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="AJ6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="U6" s="11" t="s">
+      <c r="AK6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="V6" s="11" t="s">
+      <c r="AL6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="W6" s="11" t="s">
+      <c r="AM6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="X6" s="11" t="s">
+      <c r="AN6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="Y6" s="11" t="s">
+      <c r="AO6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Z6" s="11" t="s">
+      <c r="AP6" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AA6" s="11" t="s">
+      <c r="AQ6" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AB6" s="11" t="s">
+      <c r="AR6" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AC6" s="11" t="s">
+      <c r="AS6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AD6" s="11" t="s">
+      <c r="AT6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AE6" s="11" t="s">
+      <c r="AU6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF6" s="11" t="s">
+      <c r="AV6" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AG6" s="11" t="s">
+      <c r="AW6" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AH6" s="11" t="s">
+      <c r="AX6" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AI6" s="11" t="s">
+      <c r="AY6" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AJ6" s="11" t="s">
+      <c r="AZ6" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="AK6" s="11" t="s">
+      <c r="BA6" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AL6" s="11" t="s">
+      <c r="BB6" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AM6" s="11" t="s">
+      <c r="BC6" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AN6" s="11" t="s">
+      <c r="BD6" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AO6" s="11" t="s">
+      <c r="BE6" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="AP6" s="11" t="s">
+      <c r="BF6" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="AQ6" s="11" t="s">
+      <c r="BG6" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="AR6" s="11" t="s">
+      <c r="BH6" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="AS6" s="11" t="s">
+      <c r="BI6" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AT6" s="11" t="s">
+      <c r="BJ6" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="AU6" s="11" t="s">
+      <c r="BK6" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AV6" s="11" t="s">
+      <c r="BL6" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AW6" s="11" t="s">
+      <c r="BM6" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AX6" s="11" t="s">
+      <c r="BN6" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AY6" s="11" t="s">
+      <c r="BO6" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="AZ6" s="11" t="s">
+      <c r="BP6" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="BA6" s="11" t="s">
+      <c r="BQ6" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="BB6" s="11" t="s">
+      <c r="BR6" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="BC6" s="11" t="s">
+      <c r="BS6" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="BD6" s="11" t="s">
+      <c r="BT6" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="BE6" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="BF6" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG6" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH6" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="BI6" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="BJ6" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="BK6" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="BL6" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="BM6" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="BN6" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="BO6" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BP6" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="BQ6" s="14" t="s">
+      <c r="BU6" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="BR6" s="14" t="s">
+      <c r="BV6" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="BS6" s="13" t="s">
+      <c r="BW6" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="BT6" s="13" t="s">
+      <c r="BX6" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="BU6" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="BV6" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="BW6" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="BX6" s="25" t="s">
-        <v>116</v>
-      </c>
       <c r="BY6" s="25" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="BZ6" s="25" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="CA6" s="25" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="CB6" s="25" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="CC6" s="24" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="CD6" s="14" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="CE6" s="14" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="CF6" s="14" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="CG6" s="14" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="CH6" s="14" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="CI6" s="14" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="CJ6" s="14" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4865,8 +4863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N6" sqref="L6:N8"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BH7" sqref="BH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -4875,6 +4873,7 @@
     <col min="5" max="5" width="23.42578125" customWidth="1"/>
     <col min="8" max="29" width="9.140625" outlineLevel="1"/>
     <col min="31" max="52" width="9.140625" outlineLevel="1"/>
+    <col min="57" max="58" width="11" customWidth="1"/>
     <col min="59" max="71" width="9.140625" outlineLevel="1"/>
   </cols>
   <sheetData>
@@ -4889,10 +4888,10 @@
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="34" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="G1" s="50" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="H1" s="50"/>
       <c r="I1" s="50"/>
@@ -4921,7 +4920,7 @@
       <c r="AB1" s="35"/>
       <c r="AC1" s="35"/>
       <c r="AD1" s="45" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="AE1" s="45"/>
       <c r="AF1" s="45"/>
@@ -4976,7 +4975,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="34"/>
       <c r="G2" s="36" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="H2" s="37"/>
       <c r="I2" s="37"/>
@@ -5005,7 +5004,7 @@
       <c r="AB2" s="35"/>
       <c r="AC2" s="35"/>
       <c r="AD2" s="36" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="AE2" s="37"/>
       <c r="AF2" s="37"/>
@@ -5040,7 +5039,7 @@
       <c r="BE2" s="4"/>
       <c r="BF2" s="4"/>
       <c r="CC2" s="30" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="CD2" s="30"/>
       <c r="CE2" s="30"/>
@@ -5058,16 +5057,16 @@
       <c r="E3" s="2"/>
       <c r="F3" s="34"/>
       <c r="G3" s="5" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>16</v>
@@ -5082,16 +5081,16 @@
         <v>19</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="S3" s="5" t="s">
         <v>16</v>
@@ -5113,16 +5112,16 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="5" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="AH3" s="5" t="s">
         <v>16</v>
@@ -5137,16 +5136,16 @@
         <v>19</v>
       </c>
       <c r="AL3" s="5" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="AM3" s="5" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="AN3" s="5" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="AO3" s="5" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="AP3" s="5" t="s">
         <v>16</v>
@@ -5174,35 +5173,35 @@
       <c r="BE3" s="4"/>
       <c r="BF3" s="4"/>
       <c r="BU3" s="31" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="BV3" s="31"/>
       <c r="BW3" s="53" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="BX3" s="53"/>
       <c r="BY3" s="31" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="BZ3" s="31"/>
       <c r="CA3" s="31" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="CB3" s="31"/>
       <c r="CC3" s="31" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="CD3" s="31"/>
       <c r="CE3" s="53" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="CF3" s="53"/>
       <c r="CG3" s="31" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="CH3" s="31"/>
       <c r="CI3" s="31" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="CJ3" s="31"/>
     </row>
@@ -5276,7 +5275,7 @@
       <c r="BE4" s="4"/>
       <c r="BF4" s="4"/>
       <c r="BG4" s="41" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="BH4" s="42"/>
       <c r="BI4" s="42"/>
@@ -5292,7 +5291,7 @@
       <c r="BS4" s="42"/>
       <c r="BT4" s="54"/>
       <c r="BU4" s="32" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="BV4" s="33"/>
       <c r="BW4" s="33"/>
@@ -5316,7 +5315,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="27" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="5">
@@ -5464,7 +5463,7 @@
     </row>
     <row r="6" spans="1:88" s="2" customFormat="1" ht="45">
       <c r="B6" s="11" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>31</v>
@@ -5473,256 +5472,256 @@
         <v>32</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G6" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="W6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="X6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="Y6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="Z6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="AA6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="AB6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="AC6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="AD6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="AE6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="AF6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="AG6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="AH6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="AI6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="AJ6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="U6" s="11" t="s">
+      <c r="AK6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="V6" s="11" t="s">
+      <c r="AL6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="W6" s="11" t="s">
+      <c r="AM6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="X6" s="11" t="s">
+      <c r="AN6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="Y6" s="11" t="s">
+      <c r="AO6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Z6" s="11" t="s">
+      <c r="AP6" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AA6" s="11" t="s">
+      <c r="AQ6" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AB6" s="11" t="s">
+      <c r="AR6" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AC6" s="11" t="s">
+      <c r="AS6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AD6" s="11" t="s">
+      <c r="AT6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AE6" s="11" t="s">
+      <c r="AU6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF6" s="11" t="s">
+      <c r="AV6" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AG6" s="11" t="s">
+      <c r="AW6" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AH6" s="11" t="s">
+      <c r="AX6" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AI6" s="11" t="s">
+      <c r="AY6" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AJ6" s="11" t="s">
+      <c r="AZ6" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="AK6" s="11" t="s">
+      <c r="BA6" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AL6" s="11" t="s">
+      <c r="BB6" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AM6" s="11" t="s">
+      <c r="BC6" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AN6" s="11" t="s">
+      <c r="BD6" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AO6" s="11" t="s">
+      <c r="BE6" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="AP6" s="11" t="s">
+      <c r="BF6" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="AQ6" s="11" t="s">
+      <c r="BG6" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="AR6" s="11" t="s">
+      <c r="BH6" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="AS6" s="11" t="s">
+      <c r="BI6" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AT6" s="11" t="s">
+      <c r="BJ6" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="AU6" s="11" t="s">
+      <c r="BK6" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AV6" s="11" t="s">
+      <c r="BL6" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AW6" s="11" t="s">
+      <c r="BM6" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AX6" s="11" t="s">
+      <c r="BN6" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AY6" s="11" t="s">
+      <c r="BO6" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="AZ6" s="11" t="s">
+      <c r="BP6" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="BA6" s="11" t="s">
+      <c r="BQ6" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="BB6" s="11" t="s">
+      <c r="BR6" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="BC6" s="11" t="s">
+      <c r="BS6" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="BD6" s="11" t="s">
+      <c r="BT6" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="BE6" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="BF6" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG6" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH6" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="BI6" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="BJ6" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="BK6" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="BL6" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="BM6" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="BN6" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="BO6" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BP6" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="BQ6" s="14" t="s">
+      <c r="BU6" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="BR6" s="14" t="s">
+      <c r="BV6" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="BS6" s="13" t="s">
+      <c r="BW6" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="BT6" s="13" t="s">
+      <c r="BX6" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="BU6" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="BV6" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="BW6" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="BX6" s="25" t="s">
-        <v>116</v>
-      </c>
       <c r="BY6" s="25" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="BZ6" s="25" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="CA6" s="25" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="CB6" s="25" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="CC6" s="24" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="CD6" s="14" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="CE6" s="14" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="CF6" s="14" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="CG6" s="14" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="CH6" s="14" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="CI6" s="14" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="CJ6" s="14" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
